--- a/bom/filter-misc.xlsx
+++ b/bom/filter-misc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5618E3D5-01C8-4C45-838D-9542431CF801}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBE9D8-E206-4295-8AA8-B9F799D419A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="1730" windowWidth="24000" windowHeight="12760" tabRatio="790" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="25580" windowHeight="15470" tabRatio="790" activeTab="3" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
     <sheet name="bpf-IF-SAW-856930" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="86">
   <si>
     <t>Notes</t>
   </si>
@@ -178,9 +178,6 @@
     <t>AT1, AT2, AT3</t>
   </si>
   <si>
-    <t>Z1, Z2, Z3, AT1, AT2, AT3</t>
-  </si>
-  <si>
     <t>Susumu</t>
   </si>
   <si>
@@ -287,6 +284,27 @@
   </si>
   <si>
     <t>Filter, thin-film 0805, 1220 - 1420 MHz</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>Z1, Z2, Z3</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00‎</t>
+  </si>
+  <si>
+    <t>R - 0603, 0, jumper</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00CT-ND‎</t>
+  </si>
+  <si>
+    <t>Assembled 1x board w/ all 0 ohm</t>
+  </si>
+  <si>
+    <t>DNP</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,6 +411,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511E1D-1F43-4E9A-A428-C582B74E68D7}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -742,7 +769,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -848,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -889,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -978,7 +1005,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1015,7 +1042,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1121,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1152,8 +1179,8 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1162,19 +1189,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -1248,7 +1275,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1285,7 +1312,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1391,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1422,8 +1449,8 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1432,19 +1459,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -1515,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78247F15-604B-4815-817D-5809FD1D0A84}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1655,8 +1682,8 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
+      <c r="B8" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1687,8 +1714,8 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
+      <c r="B9" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1716,148 +1743,192 @@
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
+      <c r="B10" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
+      <c r="B13" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>45</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1900,6 +1971,14 @@
       </c>
       <c r="C23" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" s="2">
+        <v>43738</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/bom/filter-misc.xlsx
+++ b/bom/filter-misc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBE9D8-E206-4295-8AA8-B9F799D419A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB027F02-586A-4E29-9812-52FE422AB49E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="25580" windowHeight="15470" tabRatio="790" activeTab="3" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="2680" yWindow="1090" windowWidth="20410" windowHeight="15830" tabRatio="790" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
     <sheet name="bpf-IF-SAW-856930" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="86">
   <si>
     <t>Notes</t>
   </si>
@@ -196,9 +196,6 @@
     <t>RMCF0402ZT0R00CT-ND‎</t>
   </si>
   <si>
-    <t>ORD</t>
-  </si>
-  <si>
     <t>PAT1220-C-2DB-T5</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>DNP</t>
+  </si>
+  <si>
+    <t>Assembled 1x board</t>
   </si>
 </sst>
 </file>
@@ -729,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511E1D-1F43-4E9A-A428-C582B74E68D7}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -769,7 +769,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -874,8 +874,8 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -906,8 +906,8 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
+      <c r="B9" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -993,6 +993,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2">
+        <v>43740</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -1005,7 +1013,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1042,7 +1050,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1147,8 +1155,8 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1189,19 +1197,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -1312,7 +1320,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1417,8 +1425,8 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1459,19 +1467,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -1544,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78247F15-604B-4815-817D-5809FD1D0A84}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1683,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1715,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1750,22 +1758,22 @@
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
@@ -1782,22 +1790,22 @@
         <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
@@ -1814,22 +1822,22 @@
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
@@ -1846,22 +1854,22 @@
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>44</v>
@@ -1872,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1904,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1916,16 +1924,16 @@
         <v>45</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
@@ -1978,7 +1986,7 @@
         <v>43738</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/bom/filter-misc.xlsx
+++ b/bom/filter-misc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB027F02-586A-4E29-9812-52FE422AB49E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6557F0-B0D9-4E7F-9B1F-BF1FA15CE4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1090" windowWidth="20410" windowHeight="15830" tabRatio="790" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="4960" yWindow="1960" windowWidth="21320" windowHeight="14390" tabRatio="790" activeTab="1" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
     <sheet name="bpf-IF-SAW-856930" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
   <si>
     <t>Notes</t>
   </si>
@@ -202,36 +202,18 @@
     <t>PAT1220-C-4DB-T5</t>
   </si>
   <si>
-    <t>PAT1220-C-6DB-T5</t>
-  </si>
-  <si>
-    <t>PAT1220-C-8DB-T5</t>
-  </si>
-  <si>
     <t>AT, 0805, 100mW, 2dB</t>
   </si>
   <si>
     <t>AT, 0805, 100mW, 4dB</t>
   </si>
   <si>
-    <t>AT, 0805, 100mW, 6dB</t>
-  </si>
-  <si>
-    <t>AT, 0805, 100mW, 8dB</t>
-  </si>
-  <si>
     <t>PAT122CT-ND</t>
   </si>
   <si>
     <t>PAT124CT-ND</t>
   </si>
   <si>
-    <t>PAT126CT-ND</t>
-  </si>
-  <si>
-    <t>PAT128CT-ND</t>
-  </si>
-  <si>
     <t>Source: diplexer-GPS-RF360-B8666.sch</t>
   </si>
   <si>
@@ -305,6 +287,12 @@
   </si>
   <si>
     <t>Assembled 1x board</t>
+  </si>
+  <si>
+    <t>On LO</t>
+  </si>
+  <si>
+    <t>Added 2dB att to LO</t>
   </si>
 </sst>
 </file>
@@ -731,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511E1D-1F43-4E9A-A428-C582B74E68D7}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -769,7 +757,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -874,8 +862,8 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
+      <c r="B8" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -907,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -916,25 +904,25 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -998,7 +986,7 @@
         <v>43740</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05490B47-81A4-4689-B02D-3987699F146D}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1050,7 +1038,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1153,10 +1141,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1185,10 +1173,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1197,19 +1185,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -1271,6 +1259,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2">
+        <v>43757</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="2">
+        <v>43764</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -1280,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77815A3A-DEFE-4FC0-82F6-0B11DAB2F987}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1320,7 +1324,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1425,8 +1429,8 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
+      <c r="B8" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1457,8 +1461,8 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>41</v>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1467,19 +1471,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -1541,6 +1545,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2">
+        <v>43757</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -1550,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78247F15-604B-4815-817D-5809FD1D0A84}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1691,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1723,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1749,16 +1761,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>43</v>
@@ -1767,22 +1779,22 @@
         <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
       <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -1799,13 +1811,13 @@
         <v>50</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
@@ -1813,31 +1825,31 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
@@ -1845,148 +1857,92 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="13">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43733</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="2">
+        <v>43738</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="2">
+        <v>43764</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="13">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43733</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="B24" s="2">
-        <v>43738</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/bom/filter-misc.xlsx
+++ b/bom/filter-misc.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6557F0-B0D9-4E7F-9B1F-BF1FA15CE4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D8AB8C-8B93-4F01-B136-CC34CB8EBA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="1960" windowWidth="21320" windowHeight="14390" tabRatio="790" activeTab="1" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="3440" yWindow="1630" windowWidth="21320" windowHeight="14390" tabRatio="790" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="bpf-IF-SAW-856930" sheetId="6" r:id="rId1"/>
-    <sheet name="bpf-L-band-BP0805" sheetId="5" r:id="rId2"/>
-    <sheet name="diplexer-GPS-RF360-B8666" sheetId="4" r:id="rId3"/>
-    <sheet name="mixer-MAC-24+" sheetId="3" r:id="rId4"/>
-    <sheet name="template" sheetId="2" r:id="rId5"/>
+    <sheet name="bpf-L-band-BPF-F1250+" sheetId="8" r:id="rId1"/>
+    <sheet name="bpf-L-band-BPF-A1340+" sheetId="7" r:id="rId2"/>
+    <sheet name="bpf-IF-SAW-856930" sheetId="6" r:id="rId3"/>
+    <sheet name="bpf-L-band-BP0805" sheetId="5" r:id="rId4"/>
+    <sheet name="diplexer-GPS-RF360-B8666" sheetId="4" r:id="rId5"/>
+    <sheet name="mixer-MAC-24+" sheetId="3" r:id="rId6"/>
+    <sheet name="template" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"oresat-proto-card.csv"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"oresat-proto-card.csv"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="2">"oresat-proto-card.csv"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="3">"oresat-proto-card.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"oresat-proto-card.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"oresat-proto-card.csv"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="4">"oresat-proto-card.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"oresat-proto-card.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"oresat-proto-card.csv"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="88">
   <si>
     <t>Notes</t>
   </si>
@@ -293,6 +299,24 @@
   </si>
   <si>
     <t>Added 2dB att to LO</t>
+  </si>
+  <si>
+    <t>Source: bpf-L-band-A1340+.sch</t>
+  </si>
+  <si>
+    <t>BPF-A1340+</t>
+  </si>
+  <si>
+    <t>Filter - BPF, 1000 - 1800 MHz</t>
+  </si>
+  <si>
+    <t>Source: bpf-L-band-F1250+.sch</t>
+  </si>
+  <si>
+    <t>BPF-F1250+</t>
+  </si>
+  <si>
+    <t>Filter - BPF, 1050 - 1450 MHz</t>
   </si>
 </sst>
 </file>
@@ -716,6 +740,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A321008F-9E60-4F07-A7D3-291E2962E152}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" customWidth="1"/>
+    <col min="12" max="12" width="36.7265625" customWidth="1"/>
+    <col min="16" max="16" width="27.81640625" customWidth="1"/>
+    <col min="17" max="17" width="29.7265625" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="13">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="13">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="13">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="13">
+      <c r="A5"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="13">
+      <c r="A6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="13">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="13">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43733</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2">
+        <v>43764</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
+  <pageSetup orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F708AE83-4B98-4312-A347-2CD33C6ECA5B}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" customWidth="1"/>
+    <col min="12" max="12" width="36.7265625" customWidth="1"/>
+    <col min="16" max="16" width="27.81640625" customWidth="1"/>
+    <col min="17" max="17" width="29.7265625" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="13">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="13">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="13">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="13">
+      <c r="A5"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="13">
+      <c r="A6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="13">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="13">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43733</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
+  <pageSetup orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511E1D-1F43-4E9A-A428-C582B74E68D7}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -996,12 +1574,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05490B47-81A4-4689-B02D-3987699F146D}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1282,7 +1860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77815A3A-DEFE-4FC0-82F6-0B11DAB2F987}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -1560,7 +2138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78247F15-604B-4815-817D-5809FD1D0A84}">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -1952,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8657E1-A053-4CAC-8CB3-2C25C4CCFF02}">
   <dimension ref="A1:L27"/>
   <sheetViews>

--- a/bom/filter-misc.xlsx
+++ b/bom/filter-misc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D8AB8C-8B93-4F01-B136-CC34CB8EBA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882D974-FA0C-472C-B568-624D9504E407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1630" windowWidth="21320" windowHeight="14390" tabRatio="790" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="2490" yWindow="120" windowWidth="27380" windowHeight="16310" tabRatio="790" activeTab="6" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
     <sheet name="bpf-L-band-BPF-F1250+" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="bpf-L-band-BP0805" sheetId="5" r:id="rId4"/>
     <sheet name="diplexer-GPS-RF360-B8666" sheetId="4" r:id="rId5"/>
     <sheet name="mixer-MAC-24+" sheetId="3" r:id="rId6"/>
-    <sheet name="template" sheetId="2" r:id="rId7"/>
+    <sheet name="quad-hybrid-QCN-xxx+" sheetId="9" r:id="rId7"/>
+    <sheet name="template" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
@@ -29,6 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="2">"oresat-proto-card.csv"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="3">"oresat-proto-card.csv"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"oresat-proto-card.csv"</definedName>
@@ -36,6 +38,7 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="4">"oresat-proto-card.csv"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="5">"oresat-proto-card.csv"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="6">"oresat-proto-card.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"oresat-proto-card.csv"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="99">
   <si>
     <t>Notes</t>
   </si>
@@ -317,6 +320,39 @@
   </si>
   <si>
     <t>Filter - BPF, 1050 - 1450 MHz</t>
+  </si>
+  <si>
+    <t>Source: quad-hybrid-QCN-xxx+.sch</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RT0402BRD07100RL</t>
+  </si>
+  <si>
+    <t>R - 0402, 100, 0.1%, 25ppm</t>
+  </si>
+  <si>
+    <t>YAG2301CT-ND</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>Precision 100 ohm resistor</t>
+  </si>
+  <si>
+    <t>Modified: 2019-11-10</t>
   </si>
 </sst>
 </file>
@@ -339,7 +375,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,6 +467,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A321008F-9E60-4F07-A7D3-291E2962E152}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1295,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511E1D-1F43-4E9A-A428-C582B74E68D7}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1438,7 +1483,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>72</v>
@@ -1470,7 +1515,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>72</v>
@@ -1564,6 +1609,14 @@
         <v>43740</v>
       </c>
       <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="2">
+        <v>43782</v>
+      </c>
+      <c r="C20" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2143,7 +2196,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2531,6 +2584,294 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B027825-FFF8-43E6-A423-B167DD5B2214}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" customWidth="1"/>
+    <col min="12" max="12" width="36.7265625" customWidth="1"/>
+    <col min="16" max="16" width="27.81640625" customWidth="1"/>
+    <col min="17" max="17" width="29.7265625" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="13">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="13">
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="13">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="13">
+      <c r="A5"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="13">
+      <c r="A6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="13">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="13">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43779</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
+  <pageSetup orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8657E1-A053-4CAC-8CB3-2C25C4CCFF02}">
   <dimension ref="A1:L27"/>
   <sheetViews>

--- a/bom/filter-misc.xlsx
+++ b/bom/filter-misc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882D974-FA0C-472C-B568-624D9504E407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286761E6-69F8-4C21-B9BC-3FD62ACB579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="120" windowWidth="27380" windowHeight="16310" tabRatio="790" activeTab="6" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="27380" windowHeight="15550" tabRatio="790" firstSheet="3" activeTab="6" xr2:uid="{43A8C8E3-6B11-4AFF-A143-79A3AF0034F8}"/>
   </bookViews>
   <sheets>
     <sheet name="bpf-L-band-BPF-F1250+" sheetId="8" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="96">
   <si>
     <t>Notes</t>
   </si>
@@ -208,21 +208,12 @@
     <t>PAT1220-C-2DB-T5</t>
   </si>
   <si>
-    <t>PAT1220-C-4DB-T5</t>
-  </si>
-  <si>
     <t>AT, 0805, 100mW, 2dB</t>
   </si>
   <si>
-    <t>AT, 0805, 100mW, 4dB</t>
-  </si>
-  <si>
     <t>PAT122CT-ND</t>
   </si>
   <si>
-    <t>PAT124CT-ND</t>
-  </si>
-  <si>
     <t>Source: diplexer-GPS-RF360-B8666.sch</t>
   </si>
   <si>
@@ -346,13 +337,13 @@
     <t>R1, R2</t>
   </si>
   <si>
-    <t>ORD</t>
-  </si>
-  <si>
     <t>Precision 100 ohm resistor</t>
   </si>
   <si>
     <t>Modified: 2019-11-10</t>
+  </si>
+  <si>
+    <t>Assembled 1x board w/ matching networks</t>
   </si>
 </sst>
 </file>
@@ -375,7 +366,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,12 +382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,9 +452,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +808,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -932,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -964,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -976,10 +958,10 @@
         <v>39</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>39</v>
@@ -1051,7 +1033,7 @@
         <v>43764</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1085,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1209,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1241,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1253,10 +1235,10 @@
         <v>39</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>39</v>
@@ -1328,7 +1310,7 @@
         <v>43770</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1362,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1486,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1518,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1527,25 +1509,25 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1609,7 +1591,7 @@
         <v>43740</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1617,7 +1599,7 @@
         <v>43782</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1629,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05490B47-81A4-4689-B02D-3987699F146D}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1669,7 +1651,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1775,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1807,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1816,19 +1798,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -1895,7 +1877,7 @@
         <v>43757</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1903,7 +1885,15 @@
         <v>43764</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="2">
+        <v>43805</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +1945,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2061,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -2093,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -2102,19 +2092,19 @@
         <v>9</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -2181,7 +2171,7 @@
         <v>43757</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2186,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2334,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -2366,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -2395,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>43</v>
@@ -2410,45 +2400,48 @@
         <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="9" t="s">
-        <v>41</v>
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
@@ -2459,10 +2452,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -2471,109 +2464,85 @@
         <v>45</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="13">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43733</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="2">
+        <v>43738</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="13">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43733</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="2">
-        <v>43738</v>
+        <v>43764</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="2">
-        <v>43764</v>
+        <v>43805</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2594,7 @@
     </row>
     <row r="2" spans="1:12" ht="13">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2641,7 +2610,7 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -2760,13 +2729,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -2791,35 +2760,35 @@
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>96</v>
+      <c r="B10" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12">
